--- a/results/results_all_bin.xlsx
+++ b/results/results_all_bin.xlsx
@@ -1886,16 +1886,16 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>-0.0002503334503419804</v>
+        <v>-0.0002503334503420549</v>
       </c>
       <c r="B42">
-        <v>0.004868010587503762</v>
+        <v>0.004868010587503735</v>
       </c>
       <c r="C42">
-        <v>-0.009986354625349504</v>
+        <v>-0.009986354625349525</v>
       </c>
       <c r="D42">
-        <v>0.009485687724665542</v>
+        <v>0.009485687724665414</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1923,16 +1923,16 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>0.003706773953616562</v>
+        <v>0.003706773953616493</v>
       </c>
       <c r="B43">
-        <v>0.006854870790109116</v>
+        <v>0.006854870790109122</v>
       </c>
       <c r="C43">
-        <v>-0.01000296762660167</v>
+        <v>-0.01000296762660175</v>
       </c>
       <c r="D43">
-        <v>0.0174165155338348</v>
+        <v>0.01741651553383474</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1960,16 +1960,16 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>-0.005354251497203614</v>
+        <v>-0.005354251497203665</v>
       </c>
       <c r="B44">
-        <v>0.01165684471333945</v>
+        <v>0.01165684471333944</v>
       </c>
       <c r="C44">
-        <v>-0.02866794092388252</v>
+        <v>-0.02866794092388255</v>
       </c>
       <c r="D44">
-        <v>0.0179594379294753</v>
+        <v>0.01795943792947522</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1997,16 +1997,16 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>-0.002497913156505959</v>
+        <v>-0.002497913156506014</v>
       </c>
       <c r="B45">
-        <v>0.008181578964558203</v>
+        <v>0.008181578964558216</v>
       </c>
       <c r="C45">
-        <v>-0.01886107108562236</v>
+        <v>-0.01886107108562245</v>
       </c>
       <c r="D45">
-        <v>0.01386524477261045</v>
+        <v>0.01386524477261042</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2034,16 +2034,16 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>-0.0002503334503419804</v>
+        <v>-0.0002503334503420549</v>
       </c>
       <c r="B46">
-        <v>0.004868010587503762</v>
+        <v>0.004868010587503735</v>
       </c>
       <c r="C46">
-        <v>-0.009986354625349504</v>
+        <v>-0.009986354625349525</v>
       </c>
       <c r="D46">
-        <v>0.009485687724665542</v>
+        <v>0.009485687724665414</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2071,16 +2071,16 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>0.003456440503274582</v>
+        <v>0.003456440503274438</v>
       </c>
       <c r="B47">
-        <v>0.008919977631392489</v>
+        <v>0.008919977631392469</v>
       </c>
       <c r="C47">
-        <v>-0.0143835147595104</v>
+        <v>-0.0143835147595105</v>
       </c>
       <c r="D47">
-        <v>0.02129639576605956</v>
+        <v>0.02129639576605937</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2108,16 +2108,16 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>-0.001897810993929032</v>
+        <v>-0.001897810993929227</v>
       </c>
       <c r="B48">
-        <v>0.01343623011610707</v>
+        <v>0.01343623011610701</v>
       </c>
       <c r="C48">
-        <v>-0.02877027122614316</v>
+        <v>-0.02877027122614324</v>
       </c>
       <c r="D48">
-        <v>0.0249746492382851</v>
+        <v>0.02497464923828479</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2145,16 +2145,16 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>-0.004395724150434991</v>
+        <v>-0.004395724150435241</v>
       </c>
       <c r="B49">
-        <v>0.01646385319615181</v>
+        <v>0.01646385319615179</v>
       </c>
       <c r="C49">
-        <v>-0.03732343054273861</v>
+        <v>-0.03732343054273882</v>
       </c>
       <c r="D49">
-        <v>0.02853198224186863</v>
+        <v>0.02853198224186833</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -5734,16 +5734,16 @@
     </row>
     <row r="146">
       <c r="A146">
-        <v>-0.001127674882319064</v>
+        <v>-0.001127674882319061</v>
       </c>
       <c r="B146">
-        <v>0.001177461553703269</v>
+        <v>0.00117746155370327</v>
       </c>
       <c r="C146">
-        <v>-0.003482597989725602</v>
+        <v>-0.003482597989725601</v>
       </c>
       <c r="D146">
-        <v>0.001227248225087474</v>
+        <v>0.001227248225087479</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -5771,16 +5771,16 @@
     </row>
     <row r="147">
       <c r="A147">
-        <v>-0.0008371363146259041</v>
+        <v>-0.0008371363146259059</v>
       </c>
       <c r="B147">
-        <v>0.00099505202186184</v>
+        <v>0.0009950520218618378</v>
       </c>
       <c r="C147">
-        <v>-0.002827240358349584</v>
+        <v>-0.002827240358349582</v>
       </c>
       <c r="D147">
-        <v>0.001152967729097776</v>
+        <v>0.00115296772909777</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -5808,16 +5808,16 @@
     </row>
     <row r="148">
       <c r="A148">
-        <v>-0.001310887140974731</v>
+        <v>-0.001310887140974727</v>
       </c>
       <c r="B148">
-        <v>0.0009471532675923475</v>
+        <v>0.0009471532675923488</v>
       </c>
       <c r="C148">
-        <v>-0.003205193676159426</v>
+        <v>-0.003205193676159424</v>
       </c>
       <c r="D148">
-        <v>0.0005834193942099641</v>
+        <v>0.000583419394209971</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -5845,16 +5845,16 @@
     </row>
     <row r="149">
       <c r="A149">
-        <v>0.00192334688389818</v>
+        <v>0.001923346883898183</v>
       </c>
       <c r="B149">
-        <v>0.001199073227275173</v>
+        <v>0.00119907322727517</v>
       </c>
       <c r="C149">
-        <v>-0.0004747995706521669</v>
+        <v>-0.0004747995706521576</v>
       </c>
       <c r="D149">
-        <v>0.004321493338448527</v>
+        <v>0.004321493338448524</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -5882,16 +5882,16 @@
     </row>
     <row r="150">
       <c r="A150">
-        <v>-0.001127674882319064</v>
+        <v>-0.001127674882319061</v>
       </c>
       <c r="B150">
-        <v>0.001177461553703269</v>
+        <v>0.00117746155370327</v>
       </c>
       <c r="C150">
-        <v>-0.003482597989725602</v>
+        <v>-0.003482597989725601</v>
       </c>
       <c r="D150">
-        <v>0.001227248225087474</v>
+        <v>0.001227248225087479</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -5919,16 +5919,16 @@
     </row>
     <row r="151">
       <c r="A151">
-        <v>-0.001964811196944968</v>
+        <v>-0.001964811196944967</v>
       </c>
       <c r="B151">
-        <v>0.001927115015197989</v>
+        <v>0.001927115015197988</v>
       </c>
       <c r="C151">
-        <v>-0.005819041227340947</v>
+        <v>-0.005819041227340943</v>
       </c>
       <c r="D151">
-        <v>0.00188941883345101</v>
+        <v>0.001889418833451009</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -5956,16 +5956,16 @@
     </row>
     <row r="152">
       <c r="A152">
-        <v>-0.0032756983379197</v>
+        <v>-0.003275698337919694</v>
       </c>
       <c r="B152">
-        <v>0.002306144661487542</v>
+        <v>0.002306144661487544</v>
       </c>
       <c r="C152">
-        <v>-0.007887987660894784</v>
+        <v>-0.007887987660894781</v>
       </c>
       <c r="D152">
-        <v>0.001336590985055385</v>
+        <v>0.001336590985055394</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -5993,16 +5993,16 @@
     </row>
     <row r="153">
       <c r="A153">
-        <v>-0.001352351454021519</v>
+        <v>-0.001352351454021511</v>
       </c>
       <c r="B153">
-        <v>0.002871650256405333</v>
+        <v>0.002871650256405331</v>
       </c>
       <c r="C153">
-        <v>-0.007095651966832187</v>
+        <v>-0.007095651966832173</v>
       </c>
       <c r="D153">
-        <v>0.004390949058789147</v>
+        <v>0.004390949058789151</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -6326,16 +6326,16 @@
     </row>
     <row r="162">
       <c r="A162">
-        <v>-0.006219546659242793</v>
+        <v>-0.006219546659242784</v>
       </c>
       <c r="B162">
-        <v>0.008151705940471519</v>
+        <v>0.008151705940471501</v>
       </c>
       <c r="C162">
-        <v>-0.02252295854018583</v>
+        <v>-0.02252295854018579</v>
       </c>
       <c r="D162">
-        <v>0.01008386522170025</v>
+        <v>0.01008386522170022</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -6363,16 +6363,16 @@
     </row>
     <row r="163">
       <c r="A163">
-        <v>0.008238070472480701</v>
+        <v>0.00823807047248073</v>
       </c>
       <c r="B163">
-        <v>0.009895612052131993</v>
+        <v>0.009895612052131991</v>
       </c>
       <c r="C163">
-        <v>-0.01155315363178329</v>
+        <v>-0.01155315363178325</v>
       </c>
       <c r="D163">
-        <v>0.02802929457674469</v>
+        <v>0.02802929457674471</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -6400,16 +6400,16 @@
     </row>
     <row r="164">
       <c r="A164">
-        <v>0.01055877708953679</v>
+        <v>0.01055877708953682</v>
       </c>
       <c r="B164">
-        <v>0.006982373342407857</v>
+        <v>0.00698237334240785</v>
       </c>
       <c r="C164">
-        <v>-0.003405969595278923</v>
+        <v>-0.003405969595278877</v>
       </c>
       <c r="D164">
-        <v>0.0245235237743525</v>
+        <v>0.02452352377435253</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -6437,16 +6437,16 @@
     </row>
     <row r="165">
       <c r="A165">
-        <v>0.007539493675967538</v>
+        <v>0.007539493675967547</v>
       </c>
       <c r="B165">
-        <v>0.009991519463881144</v>
+        <v>0.009991519463881137</v>
       </c>
       <c r="C165">
-        <v>-0.01244354525179475</v>
+        <v>-0.01244354525179473</v>
       </c>
       <c r="D165">
-        <v>0.02752253260372983</v>
+        <v>0.02752253260372982</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -6474,16 +6474,16 @@
     </row>
     <row r="166">
       <c r="A166">
-        <v>-0.006219546659242793</v>
+        <v>-0.006219546659242784</v>
       </c>
       <c r="B166">
-        <v>0.008151705940471519</v>
+        <v>0.008151705940471501</v>
       </c>
       <c r="C166">
-        <v>-0.02252295854018583</v>
+        <v>-0.02252295854018579</v>
       </c>
       <c r="D166">
-        <v>0.01008386522170025</v>
+        <v>0.01008386522170022</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -6511,16 +6511,16 @@
     </row>
     <row r="167">
       <c r="A167">
-        <v>0.002018523813237908</v>
+        <v>0.002018523813237946</v>
       </c>
       <c r="B167">
-        <v>0.01273124242260008</v>
+        <v>0.01273124242260004</v>
       </c>
       <c r="C167">
-        <v>-0.02344396103196224</v>
+        <v>-0.02344396103196213</v>
       </c>
       <c r="D167">
-        <v>0.02748100865843806</v>
+        <v>0.02748100865843803</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -6548,16 +6548,16 @@
     </row>
     <row r="168">
       <c r="A168">
-        <v>0.0125773009027747</v>
+        <v>0.01257730090277477</v>
       </c>
       <c r="B168">
-        <v>0.01496656312632452</v>
+        <v>0.01496656312632447</v>
       </c>
       <c r="C168">
-        <v>-0.01735582534987434</v>
+        <v>-0.01735582534987417</v>
       </c>
       <c r="D168">
-        <v>0.04251042715542374</v>
+        <v>0.04251042715542371</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -6585,16 +6585,16 @@
     </row>
     <row r="169">
       <c r="A169">
-        <v>0.02011679457874224</v>
+        <v>0.02011679457874232</v>
       </c>
       <c r="B169">
-        <v>0.01991167672786401</v>
+        <v>0.01991167672786398</v>
       </c>
       <c r="C169">
-        <v>-0.01970655887698579</v>
+        <v>-0.01970655887698564</v>
       </c>
       <c r="D169">
-        <v>0.05994014803447026</v>
+        <v>0.05994014803447027</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
